--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Vibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B317B17-1B1C-4204-81A3-9B048404CFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD12CA3-BD06-4561-A5F3-B9E0EB2921E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B07B626B-0378-46A7-AEF9-A961C2145643}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,7 +206,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -234,7 +236,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -280,13 +282,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11814F5B-DD0B-4990-BA0D-E9DA7A0BC165}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11814F5B-DD0B-4990-BA0D-E9DA7A0BC165}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E16" xr:uid="{4CC668C3-203E-4E3B-9D1A-471490D29AEB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FDACB5D9-3D10-4BF2-8535-7CCBDC0CE02E}" name="name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6B026F2A-15F5-4E86-82F0-A707438BE9D1}" name="perpetual" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E3605578-52F4-4F99-8682-B23F80F51122}" name="subscription" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4055DC46-6480-40C9-984D-3518A266837B}" name="cloud" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FDACB5D9-3D10-4BF2-8535-7CCBDC0CE02E}" name="name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6B026F2A-15F5-4E86-82F0-A707438BE9D1}" name="perpetual" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E3605578-52F4-4F99-8682-B23F80F51122}" name="subscription" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4055DC46-6480-40C9-984D-3518A266837B}" name="cloud" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{39E0386F-50DF-428F-80CB-03435E77A747}" name="conditions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -593,7 +595,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,11 +670,11 @@
         <v>$995.00</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>DOLLAR(PRODUCT(35,E5))</f>
+        <f>DOLLAR(PRODUCT(35*E3,E5))</f>
         <v>$840.00</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f>DOLLAR(PRODUCT(35,E5))</f>
+        <f>DOLLAR(PRODUCT(35*E3,E5))</f>
         <v>$840.00</v>
       </c>
       <c r="E4" s="5" t="s">

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Vibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD12CA3-BD06-4561-A5F3-B9E0EB2921E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17D551-B3EB-479B-8D5C-1AC371DDBA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B07B626B-0378-46A7-AEF9-A961C2145643}"/>
   </bookViews>
@@ -96,9 +96,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +149,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -595,7 +591,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,14 +622,14 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>DOLLAR(4000)</f>
-        <v>$4,000.00</v>
-      </c>
-      <c r="C2" s="5" t="str">
+        <f>DOLLAR(4000,0)</f>
+        <v>$4,000</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <f>DOLLAR(PRODUCT(135,E5))</f>
         <v>$3,240.00</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>DOLLAR(PRODUCT(450,E5))</f>
         <v>$10,800.00</v>
       </c>
@@ -645,15 +641,15 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f>DOLLAR(1.5*E7)</f>
-        <v>$600.00</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B3" s="4" t="str">
+        <f>DOLLAR(1.5*E7,0)</f>
+        <v>$600</v>
+      </c>
+      <c r="C3" s="4" t="str">
         <f>DOLLAR(PRODUCT(0.05*E7,E5))</f>
         <v>$480.00</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>DOLLAR(PRODUCT(0.075*E7,E5))</f>
         <v>$720.00</v>
       </c>
@@ -666,14 +662,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>DOLLAR(995*E3)</f>
-        <v>$995.00</v>
-      </c>
-      <c r="C4" s="5" t="str">
+        <f>DOLLAR(995*E3,0)</f>
+        <v>$995</v>
+      </c>
+      <c r="C4" s="4" t="str">
         <f>DOLLAR(PRODUCT(35*E3,E5))</f>
         <v>$840.00</v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f>DOLLAR(PRODUCT(35*E3,E5))</f>
         <v>$840.00</v>
       </c>
@@ -686,8 +682,8 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>DOLLAR(1995)</f>
-        <v>$1,995.00</v>
+        <f>DOLLAR(1995,0)</f>
+        <v>$1,995</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>DOLLAR(PRODUCT(65,E5))</f>
@@ -704,7 +700,7 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f>0.15*(ROUNDUP(E5/12, 0) - 1)</f>
         <v>0.15</v>
       </c>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Vibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17D551-B3EB-479B-8D5C-1AC371DDBA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907AB3F-48B9-4E19-BFA1-BEBF5181C280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B07B626B-0378-46A7-AEF9-A961C2145643}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B07B626B-0378-46A7-AEF9-A961C2145643}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>perpetual</t>
   </si>
@@ -90,6 +91,111 @@
   </si>
   <si>
     <t>conditions</t>
+  </si>
+  <si>
+    <t>$/tw$</t>
+  </si>
+  <si>
+    <t>Quotation</t>
+  </si>
+  <si>
+    <t>Excel add-in user</t>
+  </si>
+  <si>
+    <t>Excepted price</t>
+  </si>
+  <si>
+    <t>first of Quotation</t>
+  </si>
+  <si>
+    <t>Second of Quotation</t>
+  </si>
+  <si>
+    <t>Below prices are without ODBC connector feature</t>
+  </si>
+  <si>
+    <t>Canary Axiom User 
+License</t>
+  </si>
+  <si>
+    <t>System Setup - 
+Inital setup and configuration for the Canary Cloud.</t>
+  </si>
+  <si>
+    <t>Third of Quotation</t>
+  </si>
+  <si>
+    <t>Canary System License -
+ Includes Canary Collectors, Store &amp; 
+Forward, Canary Historian for 500 
+tags, Virtual Views, Calculation 
+Server, Events, a concurrent license 
+for Axiom and the Excel Add-in and 
+Canary's Data Connectors.(This outcome contains 15% sevice charge.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情境</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+  </si>
+  <si>
+    <t>Dashboard 需能設置使用者權限管理。
+(不希望讓客戶有太多編輯功能。)</t>
+  </si>
+  <si>
+    <t>Dashboard可讓我們客製化自定的報警(這部分可接受編寫程式碼)</t>
+  </si>
+  <si>
+    <t>提供一個匯入資料的功能，
+有時因某些狀況需將某些檢驗之結果匯入資料庫
+這部分需提供相關功能及匯入資料格式。
+(這邊通常以CSV格式匯入資料居多，建議支援此資料格式)</t>
+  </si>
+  <si>
+    <t>Dashboard 可讓非程式語言管理者使用，
+例如:編輯趨勢圖，圓餅圖，長條圖，以及數據顯示。(用拖拉方式去編輯Dashboard)</t>
+  </si>
+  <si>
+    <t>尚未完全符合使用情境</t>
+  </si>
+  <si>
+    <t>功能已完整支援使用情境</t>
+  </si>
+  <si>
+    <t>備註(如未完全符合使用情境，目前應急措施，
+以及預計完工日期之補充說明)</t>
+  </si>
+  <si>
+    <t>終版日期
+(已完全符合使用情境)</t>
+  </si>
+  <si>
+    <t>初版日期
+(未完全符合使用情境版本日期)</t>
+  </si>
+  <si>
+    <t>1. gateway的部分依據提供的mapping表格自動讀取並上傳數據至雲端。(客戶可能臨時新增欄位&lt;故需要彈性化設計新增刪除欄位上傳之功能。)
+2. 可手動新增客製化欄位(例如: 新增一個由某公式計算得來的結果，做為新的變數並上傳至雲端。)
+3. 目前預計大約500+參數需要上傳至雲端。</t>
   </si>
 </sst>
 </file>
@@ -99,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +219,51 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,11 +271,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +329,39 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,8 +487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11814F5B-DD0B-4990-BA0D-E9DA7A0BC165}" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{4CC668C3-203E-4E3B-9D1A-471490D29AEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11814F5B-DD0B-4990-BA0D-E9DA7A0BC165}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E29" xr:uid="{4CC668C3-203E-4E3B-9D1A-471490D29AEB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FDACB5D9-3D10-4BF2-8535-7CCBDC0CE02E}" name="name" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{6B026F2A-15F5-4E86-82F0-A707438BE9D1}" name="perpetual" dataDxfId="3"/>
@@ -588,19 +797,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6746C55-29D4-4C07-814E-6AB31FD27004}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="30.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="30.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -617,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -626,58 +835,58 @@
         <v>$4,000</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>DOLLAR(PRODUCT(135,E5))</f>
-        <v>$3,240.00</v>
+        <f>DOLLAR(PRODUCT(135,E5),0)</f>
+        <v>$3,240</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>DOLLAR(PRODUCT(450,E5))</f>
-        <v>$10,800.00</v>
+        <f>DOLLAR(PRODUCT(450,E5),0)</f>
+        <v>$10,800</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>DOLLAR(1.5*E7,0)</f>
+        <f>DOLLAR(1.5*E8,0)</f>
         <v>$600</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>DOLLAR(PRODUCT(0.05*E7,E5))</f>
-        <v>$480.00</v>
+        <f>DOLLAR(PRODUCT(0.05*E8,E5),0)</f>
+        <v>$480</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f>DOLLAR(PRODUCT(0.075*E7,E5))</f>
-        <v>$720.00</v>
+        <f>DOLLAR(PRODUCT(0.075*E8,E5),0)</f>
+        <v>$720</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>DOLLAR(995*E3,0)</f>
-        <v>$995</v>
+        <v>$2,985</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>DOLLAR(PRODUCT(35*E3,E5))</f>
-        <v>$840.00</v>
+        <f>DOLLAR(PRODUCT(35*E3,E5),0)</f>
+        <v>$2,520</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>DOLLAR(PRODUCT(35*E3,E5))</f>
-        <v>$840.00</v>
+        <f>DOLLAR(PRODUCT(35*E3,E5),0)</f>
+        <v>$2,520</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -686,8 +895,8 @@
         <v>$1,995</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>DOLLAR(PRODUCT(65,E5))</f>
-        <v>$1,560.00</v>
+        <f>DOLLAR(PRODUCT(65,E5),0)</f>
+        <v>$1,560</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -696,125 +905,309 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>DOLLAR(395,0)</f>
+        <v>$395</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>DOLLAR(15*E5,0)</f>
+        <v>$360</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>DOLLAR(15*E5,0)</f>
+        <v>$360</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
         <f>0.15*(ROUNDUP(E5/12, 0) - 1)</f>
         <v>0.15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="str">
         <f>DOLLAR(1495,0)</f>
         <v>$1,495</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="str">
-        <f>DOLLAR(PRODUCT(50,E5))</f>
-        <v>$1,200.00</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="D9" s="5" t="str">
+        <f>DOLLAR(PRODUCT(50,E5),0)</f>
+        <v>$1,200</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f>DOLLAR((B2 + B3 +B4+B5)*(1+B6),0)</f>
-        <v>$8,729</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f>DOLLAR(C2+C3+C4+C5, 0)</f>
-        <v>$6,120</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>DOLLAR(D2+D3+D4+D6+D7+D8,0)</f>
-        <v>$15,055</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="str">
+        <f>DOLLAR((B2 + B3 +B4+B5+B6)*(1+B7),0)</f>
+        <v>$11,471</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>DOLLAR(C2+C3+C4+C5+C6, 0)</f>
+        <v>$8,160</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>DOLLAR(D2+D3+D4+D7+D8+D9,0)</f>
+        <v>$16,735</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f>DOLLAR(B11*30,0)</f>
-        <v>$261,870</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f>DOLLAR(C11*30,0)</f>
-        <v>$183,600</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>DOLLAR(D11*30,0)</f>
-        <v>$451,650</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="str">
+        <f>DOLLAR(B12*30,0)</f>
+        <v>$344,130</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>DOLLAR(C12*30,0)</f>
+        <v>$244,800</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>DOLLAR(D12*30,0)</f>
+        <v>$502,050</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>DOLLAR((B2+B3+B6)*E10*(1+B7),0)</f>
+        <v>$172,328</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>DOLLAR((C2+C3+C6)*E10,0)</f>
+        <v>$122,400</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>DOLLAR((D2+D3+D6)*E10,0)</f>
+        <v>$356,400</v>
+      </c>
       <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <f>DOLLAR(213900,0)</f>
+        <v>$213,900</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>DOLLAR(172800,0)</f>
+        <v>$172,800</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>DOLLAR(535200,0)</f>
+        <v>$535,200</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>DOLLAR(B4*E10*(1+B7),0)</f>
+        <v>$102,983</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>DOLLAR(C4*E10,0)</f>
+        <v>$75,600</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>DOLLAR(D4*E10,0)</f>
+        <v>$75,600</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <f>DOLLAR(92600,0)</f>
+        <v>$92,600</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>DOLLAR(39120*2,0)</f>
+        <v>$78,240</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f>DOLLAR(39120*2,0)</f>
+        <v>$78,240</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="8" t="str">
+        <f>DOLLAR(D9*E10,0)</f>
+        <v>$36,000</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="9" t="str">
+        <f>DOLLAR(69500,0)</f>
+        <v>$69,500</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>DOLLAR(B16+B19,0)</f>
+        <v>$275,311</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>DOLLAR(C16+C19,0)</f>
+        <v>$198,000</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>DOLLAR(D16+D19+D22,0)</f>
+        <v>$468,000</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="str">
+        <f>DOLLAR(306500,0)</f>
+        <v>$306,500</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>DOLLAR(263592,0)</f>
+        <v>$263,592</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f>DOLLAR(682940,0)</f>
+        <v>$682,940</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,4 +1216,72 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D758C9-B17C-4F88-BD0D-C452CB1FC25D}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="198" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>